--- a/bin/Debug/Hoyareedit.xlsx
+++ b/bin/Debug/Hoyareedit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VISUAL PROJECT\CSharp\WPF\HOYA_IOT\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A13174-F40D-4912-8A2F-BF747A243E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F1FD27-9243-4E87-AAC7-1965C95A585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{1C62FF78-E6D4-4524-8995-840CCA96A528}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1C62FF78-E6D4-4524-8995-840CCA96A528}"/>
   </bookViews>
   <sheets>
     <sheet name="Output" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Input!$A$1:$M$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Output!$B$10:$Y$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Output!$B$7:$Y$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -882,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1114,20 +1114,8 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1255,125 +1243,125 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1900,8 +1888,8 @@
   </sheetPr>
   <dimension ref="B1:Y61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1914,240 +1902,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="86"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="100">
+      <c r="B2" s="96">
         <v>1</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="101">
+      <c r="D2" s="97">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="E2" s="102">
+      <c r="E2" s="98">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="F2" s="103">
+      <c r="F2" s="99">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="104" t="s">
+      <c r="H2" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="104">
+      <c r="I2" s="100">
         <f>Input!H3</f>
         <v>6</v>
       </c>
-      <c r="J2" s="105">
+      <c r="J2" s="101">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="K2" s="106">
+      <c r="K2" s="102">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="L2" s="106">
+      <c r="L2" s="102">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="M2" s="107">
+      <c r="M2" s="103">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="N2" s="151"/>
+      <c r="N2" s="119"/>
     </row>
     <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="100">
+      <c r="B3" s="96">
         <v>2</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="101">
+      <c r="D3" s="97">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="E3" s="102">
+      <c r="E3" s="98">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="F3" s="103">
+      <c r="F3" s="99">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="G3" s="108">
+      <c r="G3" s="104">
         <f>Input!F5</f>
         <v>0.5</v>
       </c>
-      <c r="H3" s="104" t="s">
+      <c r="H3" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="109">
+      <c r="I3" s="105">
         <f>Input!H5</f>
         <v>5</v>
       </c>
-      <c r="J3" s="105">
+      <c r="J3" s="101">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="K3" s="106">
+      <c r="K3" s="102">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="L3" s="106">
+      <c r="L3" s="102">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="M3" s="107">
+      <c r="M3" s="103">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="N3" s="151"/>
+      <c r="N3" s="119"/>
     </row>
     <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="100">
+      <c r="B4" s="96">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="101">
+      <c r="D4" s="97">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="E4" s="102">
+      <c r="E4" s="98">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="F4" s="103">
+      <c r="F4" s="99">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="G4" s="108">
+      <c r="G4" s="104">
         <f>Input!F7</f>
         <v>2</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="109">
+      <c r="H4" s="100"/>
+      <c r="I4" s="105">
         <f>Input!H7</f>
         <v>3.5</v>
       </c>
-      <c r="J4" s="105">
+      <c r="J4" s="101">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="K4" s="106">
+      <c r="K4" s="102">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="L4" s="106">
+      <c r="L4" s="102">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="M4" s="107">
+      <c r="M4" s="103">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="N4" s="152"/>
+      <c r="N4" s="120"/>
     </row>
     <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="100">
+      <c r="B5" s="96">
         <v>4</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="97">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="98">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="F5" s="103">
+      <c r="F5" s="99">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="112">
+      <c r="H5" s="108">
         <f>Input!G9</f>
         <v>5</v>
       </c>
-      <c r="I5" s="113">
+      <c r="I5" s="109">
         <f>Input!H9</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="101">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="K5" s="106">
+      <c r="K5" s="102">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="L5" s="106">
+      <c r="L5" s="102">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="M5" s="107">
+      <c r="M5" s="103">
         <f>B8</f>
         <v>6</v>
       </c>
-      <c r="N5" s="110"/>
-    </row>
-    <row r="6" spans="2:25" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-      <c r="L6" s="117"/>
-      <c r="M6" s="117"/>
-      <c r="N6" s="114"/>
-    </row>
-    <row r="7" spans="2:25" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="114"/>
+      <c r="N5" s="106"/>
+    </row>
+    <row r="6" spans="2:25" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="110"/>
+    </row>
+    <row r="7" spans="2:25" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="110"/>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -2158,34 +2146,34 @@
         <f>Input!B1</f>
         <v>0.5</v>
       </c>
-      <c r="D8" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="153" t="s">
+      <c r="D8" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
+      <c r="K8" s="123"/>
+      <c r="L8" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="153"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="153"/>
-      <c r="P8" s="121" t="s">
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="124"/>
+      <c r="P8" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="121"/>
-      <c r="W8" s="121"/>
-      <c r="X8" s="121"/>
-      <c r="Y8" s="121"/>
+      <c r="Q8" s="123"/>
+      <c r="R8" s="123"/>
+      <c r="S8" s="123"/>
+      <c r="T8" s="123"/>
+      <c r="U8" s="123"/>
+      <c r="V8" s="123"/>
+      <c r="W8" s="123"/>
+      <c r="X8" s="123"/>
+      <c r="Y8" s="123"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -2217,105 +2205,105 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122" t="s">
+      <c r="F10" s="142"/>
+      <c r="G10" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122" t="s">
+      <c r="H10" s="142"/>
+      <c r="I10" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="L10" s="122"/>
-      <c r="M10" s="123" t="s">
+      <c r="J10" s="142"/>
+      <c r="K10" s="142" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="142"/>
+      <c r="M10" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="123"/>
-      <c r="O10" s="122" t="s">
+      <c r="N10" s="149"/>
+      <c r="O10" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122" t="s">
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122" t="s">
+      <c r="R10" s="142"/>
+      <c r="S10" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122" t="s">
+      <c r="T10" s="142"/>
+      <c r="U10" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122" t="s">
+      <c r="V10" s="142"/>
+      <c r="W10" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="122"/>
+      <c r="X10" s="142"/>
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="144" t="s">
+      <c r="C11" s="132" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="133" t="s">
+      <c r="E11" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="133" t="s">
+      <c r="F11" s="144"/>
+      <c r="G11" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134" t="s">
+      <c r="H11" s="144"/>
+      <c r="I11" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="135"/>
-      <c r="K11" s="136" t="s">
+      <c r="J11" s="145"/>
+      <c r="K11" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="137"/>
-      <c r="M11" s="138" t="s">
+      <c r="L11" s="128"/>
+      <c r="M11" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="139"/>
-      <c r="O11" s="137" t="s">
+      <c r="N11" s="148"/>
+      <c r="O11" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="143" t="s">
+      <c r="P11" s="129"/>
+      <c r="Q11" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124" t="s">
+      <c r="R11" s="131"/>
+      <c r="S11" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124" t="s">
+      <c r="T11" s="131"/>
+      <c r="U11" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124" t="s">
+      <c r="V11" s="131"/>
+      <c r="W11" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="X11" s="124"/>
+      <c r="X11" s="131"/>
       <c r="Y11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
       <c r="D12" s="2"/>
       <c r="E12" s="4" t="s">
         <v>21</v>
@@ -2380,39 +2368,39 @@
       <c r="Y12" s="12"/>
     </row>
     <row r="13" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="144"/>
-      <c r="C13" s="145"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="133"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="125" t="s">
+      <c r="E13" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="128" t="s">
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
-      <c r="O13" s="129"/>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="131" t="s">
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="141"/>
       <c r="Y13" s="12"/>
     </row>
     <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="140">
+      <c r="B14" s="125">
         <v>1</v>
       </c>
       <c r="C14" s="14">
@@ -2421,7 +2409,7 @@
       <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="84">
         <f>IF(D14=1,0,(D14-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
@@ -2437,7 +2425,7 @@
         <f>(G14 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I14" s="89">
+      <c r="I14" s="85">
         <f>(H14 +$C$8)</f>
         <v>13</v>
       </c>
@@ -2451,15 +2439,15 @@
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="119">
+      <c r="O14" s="115">
         <f>J14+$C$8</f>
         <v>19.5</v>
       </c>
-      <c r="P14" s="118">
+      <c r="P14" s="114">
         <f>O14+ VLOOKUP(C14,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q14" s="89">
+      <c r="Q14" s="85">
         <f>(P14 +$C$8)</f>
         <v>26</v>
       </c>
@@ -2467,7 +2455,7 @@
         <f>Q14 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S14" s="89">
+      <c r="S14" s="85">
         <f>(R14 +$C$8)</f>
         <v>32.5</v>
       </c>
@@ -2475,7 +2463,7 @@
         <f>S14 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U14" s="89">
+      <c r="U14" s="85">
         <f>(T14 +$C$8)</f>
         <v>39</v>
       </c>
@@ -2483,7 +2471,7 @@
         <f>U14 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W14" s="89">
+      <c r="W14" s="85">
         <f>(V14 +$C$8)</f>
         <v>45.5</v>
       </c>
@@ -2493,35 +2481,35 @@
       </c>
       <c r="Y14" s="19"/>
     </row>
-    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="141"/>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15" s="126"/>
       <c r="C15" s="20">
         <v>1</v>
       </c>
       <c r="D15" s="21">
         <v>2</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="84">
         <f>IF(D15=1,0,(D15-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="85">
         <f>(E15 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G15" s="89">
+      <c r="G15" s="85">
         <f>(F15 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H15" s="89">
+      <c r="H15" s="85">
         <f>(G15 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I15" s="89">
+      <c r="I15" s="85">
         <f>(H15 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J15" s="90">
+      <c r="J15" s="86">
         <f>(I15 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -2534,43 +2522,43 @@
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
-      <c r="O15" s="119">
+      <c r="O15" s="115">
         <f>J15+$C$8</f>
         <v>26</v>
       </c>
-      <c r="P15" s="118">
+      <c r="P15" s="114">
         <f>O15+ VLOOKUP(C15,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q15" s="89">
+      <c r="Q15" s="85">
         <f>(P15 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R15" s="89">
+      <c r="R15" s="85">
         <f>Q15 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S15" s="89">
+      <c r="S15" s="85">
         <f>(R15 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T15" s="89">
+      <c r="T15" s="85">
         <f>S15 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U15" s="89">
+      <c r="U15" s="85">
         <f>(T15 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V15" s="89">
+      <c r="V15" s="85">
         <f>U15 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W15" s="89">
+      <c r="W15" s="85">
         <f>(V15 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X15" s="90">
+      <c r="X15" s="86">
         <f>W15 + $B$8</f>
         <v>58</v>
       </c>
@@ -2589,23 +2577,23 @@
         <f>MOD(E15 -G14,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F16" s="92">
+      <c r="F16" s="88">
         <f t="shared" ref="F16:H16" si="0">MOD(F15 -H14,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I16" s="92">
+      <c r="I16" s="88">
         <f>MOD(I15 -O14,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="92">
+      <c r="J16" s="88">
         <f>MOD(J15 -P14,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -2650,7 +2638,7 @@
       <c r="Y16" s="19"/>
     </row>
     <row r="17" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="140">
+      <c r="B17" s="125">
         <v>2</v>
       </c>
       <c r="C17" s="31">
@@ -2659,31 +2647,31 @@
       <c r="D17" s="32">
         <v>3</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="84">
         <f>IF(D17=1,0,(D17-1)*($B$8+$C$8))</f>
         <v>13</v>
       </c>
-      <c r="F17" s="89">
+      <c r="F17" s="85">
         <f>(E17 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="G17" s="89">
+      <c r="G17" s="85">
         <f>(F17 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="H17" s="89">
+      <c r="H17" s="85">
         <f>(G17 + $B$8)</f>
         <v>25.5</v>
       </c>
-      <c r="I17" s="89">
+      <c r="I17" s="85">
         <f>(H17 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="86">
         <f>(I17 + $B$8)</f>
         <v>32</v>
       </c>
-      <c r="K17" s="89">
+      <c r="K17" s="85">
         <f>(J17 +$C$8)</f>
         <v>32.5</v>
       </c>
@@ -2697,73 +2685,73 @@
         <f>L17 + $C$8</f>
         <v>33.5</v>
       </c>
-      <c r="P17" s="118">
+      <c r="P17" s="114">
         <f>O17+VLOOKUP(C17,$B$2:$I$5,8,0)</f>
         <v>38.5</v>
       </c>
-      <c r="Q17" s="89">
+      <c r="Q17" s="85">
         <f>(P17 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="R17" s="89">
+      <c r="R17" s="85">
         <f>Q17 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="S17" s="89">
+      <c r="S17" s="85">
         <f>(R17 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="T17" s="89">
+      <c r="T17" s="85">
         <f>S17 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="U17" s="89">
+      <c r="U17" s="85">
         <f>(T17 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="V17" s="89">
+      <c r="V17" s="85">
         <f>U17 + $B$8</f>
         <v>58</v>
       </c>
-      <c r="W17" s="89">
+      <c r="W17" s="85">
         <f>(V17 +$C$8)</f>
         <v>58.5</v>
       </c>
-      <c r="X17" s="90">
+      <c r="X17" s="86">
         <f>W17 + $B$8</f>
         <v>64.5</v>
       </c>
       <c r="Y17" s="19"/>
     </row>
     <row r="18" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="141"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="35">
         <v>2</v>
       </c>
       <c r="D18" s="36">
         <v>4</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="84">
         <f>IF(D18=1,0,(D18-1)*($B$8+$C$8))</f>
         <v>19.5</v>
       </c>
-      <c r="F18" s="89">
+      <c r="F18" s="85">
         <f>(E18 + $B$8)</f>
         <v>25.5</v>
       </c>
-      <c r="G18" s="89">
+      <c r="G18" s="85">
         <f>(F18 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="H18" s="89">
+      <c r="H18" s="85">
         <f>(G18 + $B$8)</f>
         <v>32</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="85">
         <f>(H18 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="J18" s="90">
+      <c r="J18" s="86">
         <f>(I18 + $B$8)</f>
         <v>38.5</v>
       </c>
@@ -2781,39 +2769,39 @@
         <f>L18 + $C$8</f>
         <v>40</v>
       </c>
-      <c r="P18" s="118">
+      <c r="P18" s="114">
         <f>O18+VLOOKUP(C18,$B$2:$I$5,8,0)</f>
         <v>45</v>
       </c>
-      <c r="Q18" s="89">
+      <c r="Q18" s="85">
         <f>(P18 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="R18" s="89">
+      <c r="R18" s="85">
         <f>Q18 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="S18" s="89">
+      <c r="S18" s="85">
         <f>(R18 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="T18" s="89">
+      <c r="T18" s="85">
         <f>S18 + $B$8</f>
         <v>58</v>
       </c>
-      <c r="U18" s="89">
+      <c r="U18" s="85">
         <f>(T18 +$C$8)</f>
         <v>58.5</v>
       </c>
-      <c r="V18" s="89">
+      <c r="V18" s="85">
         <f>U18 + $B$8</f>
         <v>64.5</v>
       </c>
-      <c r="W18" s="89">
+      <c r="W18" s="85">
         <f>(V18 +$C$8)</f>
         <v>65</v>
       </c>
-      <c r="X18" s="90">
+      <c r="X18" s="86">
         <f>W18 + $B$8</f>
         <v>71</v>
       </c>
@@ -2828,27 +2816,27 @@
         <v>OK</v>
       </c>
       <c r="D19" s="25"/>
-      <c r="E19" s="92">
+      <c r="E19" s="88">
         <f>MOD(E18 -G17,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="92">
+      <c r="F19" s="88">
         <f t="shared" ref="F19" si="2">MOD(F18 -H17,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="92">
+      <c r="G19" s="88">
         <f t="shared" ref="G19" si="3">MOD(G18 -I17,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="92">
+      <c r="H19" s="88">
         <f t="shared" ref="H19" si="4">MOD(H18 -J17,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="92">
+      <c r="I19" s="88">
         <f>MOD(I18 -K17,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J19" s="92">
+      <c r="J19" s="88">
         <f>MOD(J18 -P17,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -2864,7 +2852,7 @@
         <f t="shared" ref="P19" si="5">MOD(P18 -R17,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="92">
+      <c r="Q19" s="88">
         <f t="shared" ref="Q19" si="6">MOD(Q18 -S17,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -2893,7 +2881,7 @@
       <c r="Y19" s="19"/>
     </row>
     <row r="20" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="140">
+      <c r="B20" s="125">
         <v>3</v>
       </c>
       <c r="C20" s="38">
@@ -2902,27 +2890,27 @@
       <c r="D20" s="39">
         <v>5</v>
       </c>
-      <c r="E20" s="120">
+      <c r="E20" s="116">
         <f>IF(D20=1,0,(D20-1)*($B$8+$C$8))</f>
         <v>26</v>
       </c>
-      <c r="F20" s="89">
+      <c r="F20" s="85">
         <f>(E20 + $B$8)</f>
         <v>32</v>
       </c>
-      <c r="G20" s="89">
+      <c r="G20" s="85">
         <f>(F20 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="H20" s="89">
+      <c r="H20" s="85">
         <f>(G20 + $B$8)</f>
         <v>38.5</v>
       </c>
-      <c r="I20" s="89">
+      <c r="I20" s="85">
         <f>(H20 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="J20" s="90">
+      <c r="J20" s="86">
         <f>(I20 + $B$8)</f>
         <v>45</v>
       </c>
@@ -2940,73 +2928,73 @@
         <f>L20 + $C$8</f>
         <v>48</v>
       </c>
-      <c r="P20" s="118">
+      <c r="P20" s="114">
         <f>O20+VLOOKUP(C20,$B$2:$I$5,8,0)</f>
         <v>51.5</v>
       </c>
-      <c r="Q20" s="89">
+      <c r="Q20" s="85">
         <f>(P20 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="R20" s="89">
+      <c r="R20" s="85">
         <f>Q20 + $B$8</f>
         <v>58</v>
       </c>
-      <c r="S20" s="89">
+      <c r="S20" s="85">
         <f>(R20 +$C$8)</f>
         <v>58.5</v>
       </c>
-      <c r="T20" s="89">
+      <c r="T20" s="85">
         <f>S20 + $B$8</f>
         <v>64.5</v>
       </c>
-      <c r="U20" s="89">
+      <c r="U20" s="85">
         <f>(T20 +$C$8)</f>
         <v>65</v>
       </c>
-      <c r="V20" s="89">
+      <c r="V20" s="85">
         <f>U20 + $B$8</f>
         <v>71</v>
       </c>
-      <c r="W20" s="89">
+      <c r="W20" s="85">
         <f>(V20 +$C$8)</f>
         <v>71.5</v>
       </c>
-      <c r="X20" s="90">
+      <c r="X20" s="86">
         <f>W20 + $B$8</f>
         <v>77.5</v>
       </c>
       <c r="Y20" s="19"/>
     </row>
     <row r="21" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="141"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="42">
         <v>3</v>
       </c>
       <c r="D21" s="43">
         <v>6</v>
       </c>
-      <c r="E21" s="120">
+      <c r="E21" s="116">
         <f>IF(D21=1,0,(D21-1)*($B$8+$C$8))</f>
         <v>32.5</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="85">
         <f>(E21 + $B$8)</f>
         <v>38.5</v>
       </c>
-      <c r="G21" s="89">
+      <c r="G21" s="85">
         <f>(F21 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="H21" s="89">
+      <c r="H21" s="85">
         <f>(G21 + $B$8)</f>
         <v>45</v>
       </c>
-      <c r="I21" s="89">
+      <c r="I21" s="85">
         <f>(H21 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="J21" s="90">
+      <c r="J21" s="86">
         <f>(I21 + $B$8)</f>
         <v>51.5</v>
       </c>
@@ -3024,39 +3012,39 @@
         <f>L21 + $C$8</f>
         <v>54.5</v>
       </c>
-      <c r="P21" s="118">
+      <c r="P21" s="114">
         <f>O21+VLOOKUP(C21,$B$2:$I$5,8,0)</f>
         <v>58</v>
       </c>
-      <c r="Q21" s="89">
+      <c r="Q21" s="85">
         <f>(P21 +$C$8)</f>
         <v>58.5</v>
       </c>
-      <c r="R21" s="89">
+      <c r="R21" s="85">
         <f>Q21 + $B$8</f>
         <v>64.5</v>
       </c>
-      <c r="S21" s="89">
+      <c r="S21" s="85">
         <f>(R21 +$C$8)</f>
         <v>65</v>
       </c>
-      <c r="T21" s="89">
+      <c r="T21" s="85">
         <f>S21 + $B$8</f>
         <v>71</v>
       </c>
-      <c r="U21" s="89">
+      <c r="U21" s="85">
         <f>(T21 +$C$8)</f>
         <v>71.5</v>
       </c>
-      <c r="V21" s="89">
+      <c r="V21" s="85">
         <f>U21 + $B$8</f>
         <v>77.5</v>
       </c>
-      <c r="W21" s="89">
+      <c r="W21" s="85">
         <f>(V21 +$C$8)</f>
         <v>78</v>
       </c>
-      <c r="X21" s="90">
+      <c r="X21" s="86">
         <f>W21 + $B$8</f>
         <v>84</v>
       </c>
@@ -3071,31 +3059,31 @@
         <v>OK</v>
       </c>
       <c r="D22" s="25"/>
-      <c r="E22" s="92">
+      <c r="E22" s="88">
         <f>MOD(E21 -G20,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="92">
+      <c r="F22" s="88">
         <f t="shared" ref="F22" si="12">MOD(F21 -H20,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G22" s="92">
+      <c r="G22" s="88">
         <f t="shared" ref="G22" si="13">MOD(G21 -I20,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="92">
+      <c r="H22" s="88">
         <f t="shared" ref="H22" si="14">MOD(H21 -J20,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I22" s="92">
+      <c r="I22" s="88">
         <f>MOD(I21 -K20,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="92">
+      <c r="J22" s="88">
         <f>MOD(J21 -P20,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="92" t="str">
+      <c r="K22" s="88" t="str">
         <f>IF(MOD(K21-P20,$B$8+$C$8)=$C$8,"OK","NG")</f>
         <v>OK</v>
       </c>
@@ -3107,7 +3095,7 @@
         <f t="shared" ref="P22" si="15">MOD(P21 -R20,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="92">
+      <c r="Q22" s="88">
         <f t="shared" ref="Q22" si="16">MOD(Q21 -S20,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -3136,7 +3124,7 @@
       <c r="Y22" s="19"/>
     </row>
     <row r="23" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="140">
+      <c r="B23" s="125">
         <v>4</v>
       </c>
       <c r="C23" s="44">
@@ -3145,27 +3133,27 @@
       <c r="D23" s="45">
         <v>7</v>
       </c>
-      <c r="E23" s="120">
+      <c r="E23" s="116">
         <f>IF(D23=1,0,(D23-1)*($B$8+$C$8))</f>
         <v>39</v>
       </c>
-      <c r="F23" s="89">
+      <c r="F23" s="85">
         <f>(E23 + $B$8)</f>
         <v>45</v>
       </c>
-      <c r="G23" s="89">
+      <c r="G23" s="85">
         <f>(F23 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="H23" s="89">
+      <c r="H23" s="85">
         <f>(G23 + $B$8)</f>
         <v>51.5</v>
       </c>
-      <c r="I23" s="89">
+      <c r="I23" s="85">
         <f>(H23 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="J23" s="90">
+      <c r="J23" s="86">
         <f>(I23 + $B$8)</f>
         <v>58</v>
       </c>
@@ -3185,73 +3173,73 @@
         <f>N23 + $C$8</f>
         <v>64</v>
       </c>
-      <c r="P23" s="118">
+      <c r="P23" s="114">
         <f>O23+VLOOKUP(C23,$B$2:$I$5,8,0)</f>
         <v>64.5</v>
       </c>
-      <c r="Q23" s="89">
+      <c r="Q23" s="85">
         <f>(P23 +$C$8)</f>
         <v>65</v>
       </c>
-      <c r="R23" s="89">
+      <c r="R23" s="85">
         <f>Q23 + $B$8</f>
         <v>71</v>
       </c>
-      <c r="S23" s="89">
+      <c r="S23" s="85">
         <f>(R23 +$C$8)</f>
         <v>71.5</v>
       </c>
-      <c r="T23" s="89">
+      <c r="T23" s="85">
         <f>S23 + $B$8</f>
         <v>77.5</v>
       </c>
-      <c r="U23" s="89">
+      <c r="U23" s="85">
         <f>(T23 +$C$8)</f>
         <v>78</v>
       </c>
-      <c r="V23" s="89">
+      <c r="V23" s="85">
         <f>U23 + $B$8</f>
         <v>84</v>
       </c>
-      <c r="W23" s="89">
+      <c r="W23" s="85">
         <f>(V23 +$C$8)</f>
         <v>84.5</v>
       </c>
-      <c r="X23" s="90">
+      <c r="X23" s="86">
         <f>W23 + $B$8</f>
         <v>90.5</v>
       </c>
       <c r="Y23" s="19"/>
     </row>
     <row r="24" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="141"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="20">
         <v>4</v>
       </c>
       <c r="D24" s="21">
         <v>8</v>
       </c>
-      <c r="E24" s="120">
+      <c r="E24" s="116">
         <f>IF(D24=1,0,(D24-1)*($B$8+$C$8))</f>
         <v>45.5</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="85">
         <f>(E24 + $B$8)</f>
         <v>51.5</v>
       </c>
-      <c r="G24" s="89">
+      <c r="G24" s="85">
         <f>(F24 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="H24" s="89">
+      <c r="H24" s="85">
         <f>(G24 + $B$8)</f>
         <v>58</v>
       </c>
-      <c r="I24" s="89">
+      <c r="I24" s="85">
         <f>(H24 +$C$8)</f>
         <v>58.5</v>
       </c>
-      <c r="J24" s="90">
+      <c r="J24" s="86">
         <f>(I24 + $B$8)</f>
         <v>64.5</v>
       </c>
@@ -3263,47 +3251,47 @@
         <f>J24 + 0.5</f>
         <v>65</v>
       </c>
-      <c r="N24" s="91">
+      <c r="N24" s="87">
         <f>M24 +VLOOKUP(C24,$B$2:$I$5,7,0)</f>
         <v>70</v>
       </c>
-      <c r="O24" s="91">
+      <c r="O24" s="87">
         <f>N24 + $C$8</f>
         <v>70.5</v>
       </c>
-      <c r="P24" s="118">
+      <c r="P24" s="114">
         <f>O24+VLOOKUP(C24,$B$2:$I$5,8,0)</f>
         <v>71</v>
       </c>
-      <c r="Q24" s="89">
+      <c r="Q24" s="85">
         <f>(P24 +$C$8)</f>
         <v>71.5</v>
       </c>
-      <c r="R24" s="89">
+      <c r="R24" s="85">
         <f>Q24 + $B$8</f>
         <v>77.5</v>
       </c>
-      <c r="S24" s="89">
+      <c r="S24" s="85">
         <f>(R24 +$C$8)</f>
         <v>78</v>
       </c>
-      <c r="T24" s="89">
+      <c r="T24" s="85">
         <f>S24 + $B$8</f>
         <v>84</v>
       </c>
-      <c r="U24" s="89">
+      <c r="U24" s="85">
         <f>(T24 +$C$8)</f>
         <v>84.5</v>
       </c>
-      <c r="V24" s="89">
+      <c r="V24" s="85">
         <f>U24 + $B$8</f>
         <v>90.5</v>
       </c>
-      <c r="W24" s="89">
+      <c r="W24" s="85">
         <f>(V24 +$C$8)</f>
         <v>91</v>
       </c>
-      <c r="X24" s="90">
+      <c r="X24" s="86">
         <f>W24 + $B$8</f>
         <v>97</v>
       </c>
@@ -3318,27 +3306,27 @@
         <v>OK</v>
       </c>
       <c r="D25" s="25"/>
-      <c r="E25" s="92">
+      <c r="E25" s="88">
         <f>MOD(E24 -G23,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F25" s="88">
         <f t="shared" ref="F25" si="22">MOD(F24 -H23,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G25" s="88">
         <f t="shared" ref="G25" si="23">MOD(G24 -I23,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="92">
+      <c r="H25" s="88">
         <f t="shared" ref="H25" si="24">MOD(H24 -J23,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="92">
+      <c r="I25" s="88">
         <f>MOD(I24 -M23,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="92">
+      <c r="J25" s="88">
         <f>MOD(J24 -P23,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -3354,7 +3342,7 @@
         <f t="shared" ref="P25" si="25">MOD(P24 -R23,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="92">
+      <c r="Q25" s="88">
         <f t="shared" ref="Q25" si="26">MOD(Q24 -S23,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -3383,7 +3371,7 @@
       <c r="Y25" s="19"/>
     </row>
     <row r="26" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="140">
+      <c r="B26" s="125">
         <v>5</v>
       </c>
       <c r="C26" s="32">
@@ -3392,27 +3380,27 @@
       <c r="D26" s="32">
         <v>1</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="84">
         <f>IF(D26=1,0,(D26-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F26" s="89">
+      <c r="F26" s="85">
         <f>(E26 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G26" s="89">
+      <c r="G26" s="85">
         <f>(F26 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H26" s="89">
+      <c r="H26" s="85">
         <f>(G26 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I26" s="89">
+      <c r="I26" s="85">
         <f>(H26 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J26" s="90">
+      <c r="J26" s="86">
         <f>(I26 + $B$8)</f>
         <v>19</v>
       </c>
@@ -3422,77 +3410,77 @@
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
       <c r="N26" s="34"/>
-      <c r="O26" s="119">
+      <c r="O26" s="115">
         <f>J26+$C$8</f>
         <v>19.5</v>
       </c>
-      <c r="P26" s="118">
+      <c r="P26" s="114">
         <f>O26+VLOOKUP(C26,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q26" s="89">
+      <c r="Q26" s="85">
         <f>(P26 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R26" s="89">
+      <c r="R26" s="85">
         <f>Q26 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S26" s="89">
+      <c r="S26" s="85">
         <f>(R26 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T26" s="89">
+      <c r="T26" s="85">
         <f>S26 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U26" s="89">
+      <c r="U26" s="85">
         <f>(T26 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V26" s="89">
+      <c r="V26" s="85">
         <f>U26 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W26" s="89">
+      <c r="W26" s="85">
         <f>(V26 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X26" s="90">
+      <c r="X26" s="86">
         <f>W26 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y26" s="19"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B27" s="141"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="46">
         <v>2</v>
       </c>
       <c r="D27" s="46">
         <v>2</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="84">
         <f>IF(D27=1,0,(D27-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F27" s="89">
+      <c r="F27" s="85">
         <f>(E27 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G27" s="89">
+      <c r="G27" s="85">
         <f>(F27 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H27" s="89">
+      <c r="H27" s="85">
         <f>(G27 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I27" s="89">
+      <c r="I27" s="85">
         <f>(H27 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27" s="86">
         <f>(I27 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -3510,39 +3498,39 @@
         <f>L27 + $C$8</f>
         <v>27</v>
       </c>
-      <c r="P27" s="118">
+      <c r="P27" s="114">
         <f>O27+VLOOKUP(C27,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q27" s="89">
+      <c r="Q27" s="85">
         <f>(P27 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R27" s="89">
+      <c r="R27" s="85">
         <f>Q27 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S27" s="89">
+      <c r="S27" s="85">
         <f>(R27 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T27" s="89">
+      <c r="T27" s="85">
         <f>S27 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U27" s="89">
+      <c r="U27" s="85">
         <f>(T27 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V27" s="89">
+      <c r="V27" s="85">
         <f>U27 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W27" s="89">
+      <c r="W27" s="85">
         <f>(V27 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X27" s="90">
+      <c r="X27" s="86">
         <f>W27 + $B$8</f>
         <v>58</v>
       </c>
@@ -3557,31 +3545,31 @@
         <v>OK</v>
       </c>
       <c r="D28" s="25"/>
-      <c r="E28" s="92">
+      <c r="E28" s="88">
         <f>MOD(E27 -G26,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="92">
+      <c r="F28" s="88">
         <f t="shared" ref="F28" si="32">MOD(F27 -H26,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="92">
+      <c r="G28" s="88">
         <f t="shared" ref="G28" si="33">MOD(G27 -I26,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="92">
+      <c r="H28" s="88">
         <f t="shared" ref="H28" si="34">MOD(H27 -J26,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="92">
+      <c r="I28" s="88">
         <f>MOD(I27 -O26,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J28" s="92">
+      <c r="J28" s="88">
         <f>MOD(J27 -P26,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="K28" s="92" t="str">
+      <c r="K28" s="88" t="str">
         <f>IF(MOD(K27-P26,$B$8+$C$8)=$C$8,"OK","NG")</f>
         <v>OK</v>
       </c>
@@ -3593,7 +3581,7 @@
         <f t="shared" ref="P28" si="35">MOD(P27 -R26,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="92">
+      <c r="Q28" s="88">
         <f t="shared" ref="Q28" si="36">MOD(Q27 -S26,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -3622,7 +3610,7 @@
       <c r="Y28" s="19"/>
     </row>
     <row r="29" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="140">
+      <c r="B29" s="125">
         <v>6</v>
       </c>
       <c r="C29" s="47">
@@ -3631,27 +3619,27 @@
       <c r="D29" s="47">
         <v>1</v>
       </c>
-      <c r="E29" s="120">
+      <c r="E29" s="116">
         <f>IF(D29=1,0,(D29-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="85">
         <f>(E29 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G29" s="89">
+      <c r="G29" s="85">
         <f>(F29 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H29" s="89">
+      <c r="H29" s="85">
         <f>(G29 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I29" s="89">
+      <c r="I29" s="85">
         <f>(H29 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J29" s="90">
+      <c r="J29" s="86">
         <f>(I29 + $B$8)</f>
         <v>19</v>
       </c>
@@ -3661,77 +3649,77 @@
       <c r="L29" s="41"/>
       <c r="M29" s="41"/>
       <c r="N29" s="41"/>
-      <c r="O29" s="119">
+      <c r="O29" s="115">
         <f>J29+$C$8</f>
         <v>19.5</v>
       </c>
-      <c r="P29" s="118">
+      <c r="P29" s="114">
         <f>O29+VLOOKUP(C29,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q29" s="89">
+      <c r="Q29" s="85">
         <f>(P29 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R29" s="89">
+      <c r="R29" s="85">
         <f>Q29 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S29" s="89">
+      <c r="S29" s="85">
         <f>(R29 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T29" s="89">
+      <c r="T29" s="85">
         <f>S29 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U29" s="89">
+      <c r="U29" s="85">
         <f>(T29 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V29" s="89">
+      <c r="V29" s="85">
         <f>U29 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W29" s="89">
+      <c r="W29" s="85">
         <f>(V29 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X29" s="90">
+      <c r="X29" s="86">
         <f>W29 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y29" s="19"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="141"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="48">
         <v>3</v>
       </c>
       <c r="D30" s="48">
         <v>2</v>
       </c>
-      <c r="E30" s="120">
+      <c r="E30" s="116">
         <f>IF(D30=1,0,(D30-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F30" s="85">
         <f>(E30 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G30" s="89">
+      <c r="G30" s="85">
         <f>(F30 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H30" s="89">
+      <c r="H30" s="85">
         <f>(G30 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I30" s="89">
+      <c r="I30" s="85">
         <f>(H30 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J30" s="90">
+      <c r="J30" s="86">
         <f>(I30 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -3749,39 +3737,39 @@
         <f>L30 + $C$8</f>
         <v>28.5</v>
       </c>
-      <c r="P30" s="118">
+      <c r="P30" s="114">
         <f>O30+VLOOKUP(C30,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q30" s="89">
+      <c r="Q30" s="85">
         <f>(P30 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R30" s="89">
+      <c r="R30" s="85">
         <f>Q30 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S30" s="89">
+      <c r="S30" s="85">
         <f>(R30 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T30" s="89">
+      <c r="T30" s="85">
         <f>S30 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U30" s="89">
+      <c r="U30" s="85">
         <f>(T30 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V30" s="89">
+      <c r="V30" s="85">
         <f>U30 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W30" s="89">
+      <c r="W30" s="85">
         <f>(V30 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X30" s="90">
+      <c r="X30" s="86">
         <f>W30 + $B$8</f>
         <v>58</v>
       </c>
@@ -3796,31 +3784,31 @@
         <v>OK</v>
       </c>
       <c r="D31" s="25"/>
-      <c r="E31" s="92">
+      <c r="E31" s="88">
         <f>MOD(E30 -G29,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="92">
+      <c r="F31" s="88">
         <f t="shared" ref="F31" si="42">MOD(F30 -H29,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="92">
+      <c r="G31" s="88">
         <f t="shared" ref="G31" si="43">MOD(G30 -I29,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="92">
+      <c r="H31" s="88">
         <f t="shared" ref="H31" si="44">MOD(H30 -J29,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="92">
+      <c r="I31" s="88">
         <f>MOD(I30 -O29,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="92">
+      <c r="J31" s="88">
         <f>MOD(J30 -P29,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="92" t="str">
+      <c r="K31" s="88" t="str">
         <f>IF(MOD(K30-P29,$B$8+$C$8)=$C$8,"OK","NG")</f>
         <v>OK</v>
       </c>
@@ -3832,7 +3820,7 @@
         <f t="shared" ref="P31" si="45">MOD(P30 -R29,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="92">
+      <c r="Q31" s="88">
         <f t="shared" ref="Q31" si="46">MOD(Q30 -S29,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -3861,7 +3849,7 @@
       <c r="Y31" s="19"/>
     </row>
     <row r="32" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="140">
+      <c r="B32" s="125">
         <v>7</v>
       </c>
       <c r="C32" s="15">
@@ -3870,27 +3858,27 @@
       <c r="D32" s="15">
         <v>1</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="84">
         <f>IF(D32=1,0,(D32-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F32" s="89">
+      <c r="F32" s="85">
         <f>(E32 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G32" s="89">
+      <c r="G32" s="85">
         <f>(F32 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H32" s="89">
+      <c r="H32" s="85">
         <f>(G32 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I32" s="89">
+      <c r="I32" s="85">
         <f>(H32 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J32" s="90">
+      <c r="J32" s="86">
         <f>(I32 + $B$8)</f>
         <v>19</v>
       </c>
@@ -3900,77 +3888,77 @@
       <c r="L32" s="23"/>
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
-      <c r="O32" s="119">
+      <c r="O32" s="115">
         <f>J32+$C$8</f>
         <v>19.5</v>
       </c>
-      <c r="P32" s="118">
+      <c r="P32" s="114">
         <f>O32+VLOOKUP(C32,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q32" s="89">
+      <c r="Q32" s="85">
         <f>(P32 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R32" s="89">
+      <c r="R32" s="85">
         <f>Q32 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S32" s="89">
+      <c r="S32" s="85">
         <f>(R32 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T32" s="89">
+      <c r="T32" s="85">
         <f>S32 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U32" s="89">
+      <c r="U32" s="85">
         <f>(T32 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V32" s="89">
+      <c r="V32" s="85">
         <f>U32 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W32" s="89">
+      <c r="W32" s="85">
         <f>(V32 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X32" s="90">
+      <c r="X32" s="86">
         <f>W32 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y32" s="19"/>
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B33" s="141"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="49">
         <v>4</v>
       </c>
       <c r="D33" s="49">
         <v>2</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="84">
         <f>IF(D33=1,0,(D33-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F33" s="89">
+      <c r="F33" s="85">
         <f>(E33 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G33" s="89">
+      <c r="G33" s="85">
         <f>(F33 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H33" s="89">
+      <c r="H33" s="85">
         <f>(G33 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I33" s="89">
+      <c r="I33" s="85">
         <f>(H33 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J33" s="90">
+      <c r="J33" s="86">
         <f>(I33 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -3982,47 +3970,47 @@
         <f>J33 + 0.5</f>
         <v>26</v>
       </c>
-      <c r="N33" s="91">
+      <c r="N33" s="87">
         <f>M33 +VLOOKUP(C33,$B$2:$I$5,7,0)</f>
         <v>31</v>
       </c>
-      <c r="O33" s="91">
+      <c r="O33" s="87">
         <f>N33 + $C$8</f>
         <v>31.5</v>
       </c>
-      <c r="P33" s="118">
+      <c r="P33" s="114">
         <f>O33+VLOOKUP(C33,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q33" s="89">
+      <c r="Q33" s="85">
         <f>(P33 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R33" s="89">
+      <c r="R33" s="85">
         <f>Q33 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S33" s="89">
+      <c r="S33" s="85">
         <f>(R33 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T33" s="89">
+      <c r="T33" s="85">
         <f>S33 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U33" s="89">
+      <c r="U33" s="85">
         <f>(T33 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V33" s="89">
+      <c r="V33" s="85">
         <f>U33 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W33" s="89">
+      <c r="W33" s="85">
         <f>(V33 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X33" s="90">
+      <c r="X33" s="86">
         <f>W33 + $B$8</f>
         <v>58</v>
       </c>
@@ -4037,27 +4025,27 @@
         <v>OK</v>
       </c>
       <c r="D34" s="25"/>
-      <c r="E34" s="92">
+      <c r="E34" s="88">
         <f>MOD(E33 -G32,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="92">
+      <c r="F34" s="88">
         <f t="shared" ref="F34" si="52">MOD(F33 -H32,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="92">
+      <c r="G34" s="88">
         <f t="shared" ref="G34" si="53">MOD(G33 -I32,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="92">
+      <c r="H34" s="88">
         <f t="shared" ref="H34" si="54">MOD(H33 -J32,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I34" s="92">
+      <c r="I34" s="88">
         <f>MOD(I33 -O32,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="92">
+      <c r="J34" s="88">
         <f>MOD(J33 -P32,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -4073,7 +4061,7 @@
         <f t="shared" ref="P34" si="55">MOD(P33 -R32,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="92">
+      <c r="Q34" s="88">
         <f t="shared" ref="Q34" si="56">MOD(Q33 -S32,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -4102,7 +4090,7 @@
       <c r="Y34" s="19"/>
     </row>
     <row r="35" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="140">
+      <c r="B35" s="125">
         <v>8</v>
       </c>
       <c r="C35" s="51">
@@ -4111,27 +4099,27 @@
       <c r="D35" s="51">
         <v>1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="84">
         <f>IF(D35=1,0,(D35-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F35" s="89">
+      <c r="F35" s="85">
         <f>(E35 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G35" s="89">
+      <c r="G35" s="85">
         <f>(F35 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H35" s="89">
+      <c r="H35" s="85">
         <f>(G35 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I35" s="89">
+      <c r="I35" s="85">
         <f>(H35 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J35" s="90">
+      <c r="J35" s="86">
         <f>(I35 + $B$8)</f>
         <v>19</v>
       </c>
@@ -4149,73 +4137,73 @@
         <f>L35 + $C$8</f>
         <v>20.5</v>
       </c>
-      <c r="P35" s="118">
+      <c r="P35" s="114">
         <f>O35+VLOOKUP(C35,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q35" s="89">
+      <c r="Q35" s="85">
         <f>(P35 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R35" s="89">
+      <c r="R35" s="85">
         <f>Q35 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S35" s="89">
+      <c r="S35" s="85">
         <f>(R35 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T35" s="89">
+      <c r="T35" s="85">
         <f>S35 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U35" s="89">
+      <c r="U35" s="85">
         <f>(T35 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V35" s="89">
+      <c r="V35" s="85">
         <f>U35 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W35" s="89">
+      <c r="W35" s="85">
         <f>(V35 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X35" s="90">
+      <c r="X35" s="86">
         <f>W35 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y35" s="19"/>
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B36" s="141"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="46">
         <v>1</v>
       </c>
       <c r="D36" s="46">
         <v>2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="84">
         <f>IF(D36=1,0,(D36-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F36" s="89">
+      <c r="F36" s="85">
         <f>(E36 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G36" s="89">
+      <c r="G36" s="85">
         <f>(F36 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H36" s="89">
+      <c r="H36" s="85">
         <f>(G36 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I36" s="89">
+      <c r="I36" s="85">
         <f>(H36 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J36" s="90">
+      <c r="J36" s="86">
         <f>(I36 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -4225,43 +4213,43 @@
       <c r="L36" s="34"/>
       <c r="M36" s="34"/>
       <c r="N36" s="34"/>
-      <c r="O36" s="119">
+      <c r="O36" s="115">
         <f>J36+$C$8</f>
         <v>26</v>
       </c>
-      <c r="P36" s="118">
+      <c r="P36" s="114">
         <f>O36+VLOOKUP(C36,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q36" s="89">
+      <c r="Q36" s="85">
         <f>(P36 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R36" s="89">
+      <c r="R36" s="85">
         <f>Q36 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S36" s="89">
+      <c r="S36" s="85">
         <f>(R36 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T36" s="89">
+      <c r="T36" s="85">
         <f>S36 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U36" s="89">
+      <c r="U36" s="85">
         <f>(T36 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V36" s="89">
+      <c r="V36" s="85">
         <f>U36 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W36" s="89">
+      <c r="W36" s="85">
         <f>(V36 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X36" s="90">
+      <c r="X36" s="86">
         <f>W36 + $B$8</f>
         <v>58</v>
       </c>
@@ -4276,34 +4264,34 @@
         <v>OK</v>
       </c>
       <c r="D37" s="25"/>
-      <c r="E37" s="92">
+      <c r="E37" s="88">
         <f>MOD(E36 -G35,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="92">
+      <c r="F37" s="88">
         <f t="shared" ref="F37" si="62">MOD(F36 -H35,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G37" s="92">
+      <c r="G37" s="88">
         <f t="shared" ref="G37" si="63">MOD(G36 -I35,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="92">
+      <c r="H37" s="88">
         <f t="shared" ref="H37" si="64">MOD(H36 -J35,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I37" s="92">
+      <c r="I37" s="88">
         <f>MOD(I36 -K35,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J37" s="92">
+      <c r="J37" s="88">
         <f>MOD(J36 -P35,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="146"/>
-      <c r="L37" s="147"/>
-      <c r="M37" s="149"/>
-      <c r="N37" s="150"/>
+      <c r="K37" s="121"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="118"/>
       <c r="O37" s="27" t="str">
         <f>IF(MOD(O36-P35,$B$8+$C$8)=$C$8, "OK", "NG")</f>
         <v>OK</v>
@@ -4312,7 +4300,7 @@
         <f t="shared" ref="P37" si="65">MOD(P36 -R35,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="92">
+      <c r="Q37" s="88">
         <f t="shared" ref="Q37" si="66">MOD(Q36 -S35,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -4341,7 +4329,7 @@
       <c r="Y37" s="19"/>
     </row>
     <row r="38" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="140">
+      <c r="B38" s="125">
         <v>9</v>
       </c>
       <c r="C38" s="47">
@@ -4350,27 +4338,27 @@
       <c r="D38" s="47">
         <v>1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="84">
         <f>IF(D38=1,0,(D38-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F38" s="89">
+      <c r="F38" s="85">
         <f>(E38 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G38" s="89">
+      <c r="G38" s="85">
         <f>(F38 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H38" s="89">
+      <c r="H38" s="85">
         <f>(G38 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I38" s="89">
+      <c r="I38" s="85">
         <f>(H38 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J38" s="90">
+      <c r="J38" s="86">
         <f>(I38 + $B$8)</f>
         <v>19</v>
       </c>
@@ -4388,73 +4376,73 @@
         <f>L38 + $C$8</f>
         <v>20.5</v>
       </c>
-      <c r="P38" s="118">
+      <c r="P38" s="114">
         <f>O38+VLOOKUP(C38,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q38" s="89">
+      <c r="Q38" s="85">
         <f>(P38 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R38" s="89">
+      <c r="R38" s="85">
         <f>Q38 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S38" s="89">
+      <c r="S38" s="85">
         <f>(R38 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T38" s="89">
+      <c r="T38" s="85">
         <f>S38 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U38" s="89">
+      <c r="U38" s="85">
         <f>(T38 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V38" s="89">
+      <c r="V38" s="85">
         <f>U38 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W38" s="89">
+      <c r="W38" s="85">
         <f>(V38 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X38" s="90">
+      <c r="X38" s="86">
         <f>W38 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y38" s="19"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B39" s="141"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="48">
         <v>3</v>
       </c>
       <c r="D39" s="48">
         <v>2</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="84">
         <f>IF(D39=1,0,(D39-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F39" s="89">
+      <c r="F39" s="85">
         <f>(E39 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G39" s="89">
+      <c r="G39" s="85">
         <f>(F39 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H39" s="89">
+      <c r="H39" s="85">
         <f>(G39 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I39" s="89">
+      <c r="I39" s="85">
         <f>(H39 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J39" s="90">
+      <c r="J39" s="86">
         <f>(I39 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -4472,39 +4460,39 @@
         <f>L39 + $C$8</f>
         <v>28.5</v>
       </c>
-      <c r="P39" s="118">
+      <c r="P39" s="114">
         <f>O39+VLOOKUP(C39,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q39" s="89">
+      <c r="Q39" s="85">
         <f>(P39 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R39" s="89">
+      <c r="R39" s="85">
         <f>Q39 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S39" s="89">
+      <c r="S39" s="85">
         <f>(R39 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T39" s="89">
+      <c r="T39" s="85">
         <f>S39 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U39" s="89">
+      <c r="U39" s="85">
         <f>(T39 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V39" s="89">
+      <c r="V39" s="85">
         <f>U39 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W39" s="89">
+      <c r="W39" s="85">
         <f>(V39 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X39" s="90">
+      <c r="X39" s="86">
         <f>W39 + $B$8</f>
         <v>58</v>
       </c>
@@ -4519,31 +4507,31 @@
         <v>OK</v>
       </c>
       <c r="D40" s="25"/>
-      <c r="E40" s="92">
+      <c r="E40" s="88">
         <f>MOD(E39 -G38,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="92">
+      <c r="F40" s="88">
         <f t="shared" ref="F40" si="72">MOD(F39 -H38,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="92">
+      <c r="G40" s="88">
         <f t="shared" ref="G40" si="73">MOD(G39 -I38,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="92">
+      <c r="H40" s="88">
         <f t="shared" ref="H40" si="74">MOD(H39 -J38,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="92">
+      <c r="I40" s="88">
         <f>MOD(I39 -K38,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J40" s="92">
+      <c r="J40" s="88">
         <f>MOD(J39 -P38,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="92" t="str">
+      <c r="K40" s="88" t="str">
         <f>IF(MOD(K39-P38,$B$8+$C$8)=$C$8,"OK","NG")</f>
         <v>OK</v>
       </c>
@@ -4555,7 +4543,7 @@
         <f t="shared" ref="P40" si="75">MOD(P39 -R38,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="92">
+      <c r="Q40" s="88">
         <f t="shared" ref="Q40" si="76">MOD(Q39 -S38,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -4584,7 +4572,7 @@
       <c r="Y40" s="19"/>
     </row>
     <row r="41" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="140">
+      <c r="B41" s="125">
         <v>10</v>
       </c>
       <c r="C41" s="15">
@@ -4593,27 +4581,27 @@
       <c r="D41" s="15">
         <v>1</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="84">
         <f>IF(D41=1,0,(D41-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F41" s="89">
+      <c r="F41" s="85">
         <f>(E41 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G41" s="89">
+      <c r="G41" s="85">
         <f>(F41 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H41" s="89">
+      <c r="H41" s="85">
         <f>(G41 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I41" s="89">
+      <c r="I41" s="85">
         <f>(H41 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J41" s="90">
+      <c r="J41" s="86">
         <f>(I41 + $B$8)</f>
         <v>19</v>
       </c>
@@ -4631,73 +4619,73 @@
         <f>L41 + $C$8</f>
         <v>20.5</v>
       </c>
-      <c r="P41" s="118">
+      <c r="P41" s="114">
         <f>O41+VLOOKUP(C41,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q41" s="89">
+      <c r="Q41" s="85">
         <f>(P41 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R41" s="89">
+      <c r="R41" s="85">
         <f>Q41 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S41" s="89">
+      <c r="S41" s="85">
         <f>(R41 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T41" s="89">
+      <c r="T41" s="85">
         <f>S41 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U41" s="89">
+      <c r="U41" s="85">
         <f>(T41 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V41" s="89">
+      <c r="V41" s="85">
         <f>U41 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W41" s="89">
+      <c r="W41" s="85">
         <f>(V41 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X41" s="90">
+      <c r="X41" s="86">
         <f>W41 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y41" s="19"/>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B42" s="141"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="49">
         <v>4</v>
       </c>
       <c r="D42" s="49">
         <v>2</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="84">
         <f>IF(D42=1,0,(D42-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F42" s="89">
+      <c r="F42" s="85">
         <f>(E42 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G42" s="89">
+      <c r="G42" s="85">
         <f>(F42 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H42" s="89">
+      <c r="H42" s="85">
         <f>(G42 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I42" s="89">
+      <c r="I42" s="85">
         <f>(H42 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J42" s="90">
+      <c r="J42" s="86">
         <f>(I42 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -4709,47 +4697,47 @@
         <f>J42 + 0.5</f>
         <v>26</v>
       </c>
-      <c r="N42" s="91">
+      <c r="N42" s="87">
         <f>M42 +VLOOKUP(C42,$B$2:$I$5,7,0)</f>
         <v>31</v>
       </c>
-      <c r="O42" s="91">
+      <c r="O42" s="87">
         <f>N42 + $C$8</f>
         <v>31.5</v>
       </c>
-      <c r="P42" s="118">
+      <c r="P42" s="114">
         <f>O42+VLOOKUP(C42,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q42" s="89">
+      <c r="Q42" s="85">
         <f>(P42 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R42" s="89">
+      <c r="R42" s="85">
         <f>Q42 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S42" s="89">
+      <c r="S42" s="85">
         <f>(R42 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T42" s="89">
+      <c r="T42" s="85">
         <f>S42 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U42" s="89">
+      <c r="U42" s="85">
         <f>(T42 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V42" s="89">
+      <c r="V42" s="85">
         <f>U42 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W42" s="89">
+      <c r="W42" s="85">
         <f>(V42 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X42" s="90">
+      <c r="X42" s="86">
         <f>W42 + $B$8</f>
         <v>58</v>
       </c>
@@ -4764,27 +4752,27 @@
         <v>OK</v>
       </c>
       <c r="D43" s="25"/>
-      <c r="E43" s="92">
+      <c r="E43" s="88">
         <f>MOD(E42 -G41,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="92">
+      <c r="F43" s="88">
         <f t="shared" ref="F43" si="82">MOD(F42 -H41,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G43" s="92">
+      <c r="G43" s="88">
         <f t="shared" ref="G43" si="83">MOD(G42 -I41,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="92">
+      <c r="H43" s="88">
         <f t="shared" ref="H43" si="84">MOD(H42 -J41,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="92">
+      <c r="I43" s="88">
         <f>MOD(I42 -K41,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="92">
+      <c r="J43" s="88">
         <f>MOD(J42 -P41,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -4800,7 +4788,7 @@
         <f t="shared" ref="P43" si="85">MOD(P42 -R41,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="92">
+      <c r="Q43" s="88">
         <f t="shared" ref="Q43" si="86">MOD(Q42 -S41,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -4829,7 +4817,7 @@
       <c r="Y43" s="19"/>
     </row>
     <row r="44" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="140">
+      <c r="B44" s="125">
         <v>11</v>
       </c>
       <c r="C44" s="51">
@@ -4838,27 +4826,27 @@
       <c r="D44" s="51">
         <v>1</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="84">
         <f>IF(D44=1,0,(D44-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F44" s="89">
+      <c r="F44" s="85">
         <f>(E44 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G44" s="89">
+      <c r="G44" s="85">
         <f>(F44 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H44" s="89">
+      <c r="H44" s="85">
         <f>(G44 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I44" s="89">
+      <c r="I44" s="85">
         <f>(H44 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J44" s="90">
+      <c r="J44" s="86">
         <f>(I44 + $B$8)</f>
         <v>19</v>
       </c>
@@ -4876,73 +4864,73 @@
         <f>L44 + $C$8</f>
         <v>22</v>
       </c>
-      <c r="P44" s="118">
+      <c r="P44" s="114">
         <f>O44+VLOOKUP(C44,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q44" s="89">
+      <c r="Q44" s="85">
         <f>(P44 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R44" s="89">
+      <c r="R44" s="85">
         <f>Q44 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S44" s="89">
+      <c r="S44" s="85">
         <f>(R44 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T44" s="89">
+      <c r="T44" s="85">
         <f>S44 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U44" s="89">
+      <c r="U44" s="85">
         <f>(T44 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V44" s="89">
+      <c r="V44" s="85">
         <f>U44 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W44" s="89">
+      <c r="W44" s="85">
         <f>(V44 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X44" s="90">
+      <c r="X44" s="86">
         <f>W44 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y44" s="19"/>
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B45" s="141"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="46">
         <v>1</v>
       </c>
       <c r="D45" s="46">
         <v>2</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="84">
         <f>IF(D45=1,0,(D45-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F45" s="89">
+      <c r="F45" s="85">
         <f>(E45 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G45" s="89">
+      <c r="G45" s="85">
         <f>(F45 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H45" s="89">
+      <c r="H45" s="85">
         <f>(G45 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I45" s="89">
+      <c r="I45" s="85">
         <f>(H45 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J45" s="90">
+      <c r="J45" s="86">
         <f>(I45 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -4952,43 +4940,43 @@
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
       <c r="N45" s="34"/>
-      <c r="O45" s="119">
+      <c r="O45" s="115">
         <f>J45+$C$8</f>
         <v>26</v>
       </c>
-      <c r="P45" s="118">
+      <c r="P45" s="114">
         <f>O45+VLOOKUP(C45,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q45" s="89">
+      <c r="Q45" s="85">
         <f>(P45 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R45" s="89">
+      <c r="R45" s="85">
         <f>Q45 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S45" s="89">
+      <c r="S45" s="85">
         <f>(R45 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T45" s="89">
+      <c r="T45" s="85">
         <f>S45 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U45" s="89">
+      <c r="U45" s="85">
         <f>(T45 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V45" s="89">
+      <c r="V45" s="85">
         <f>U45 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W45" s="89">
+      <c r="W45" s="85">
         <f>(V45 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X45" s="90">
+      <c r="X45" s="86">
         <f>W45 + $B$8</f>
         <v>58</v>
       </c>
@@ -5003,34 +4991,34 @@
         <v>OK</v>
       </c>
       <c r="D46" s="25"/>
-      <c r="E46" s="92">
+      <c r="E46" s="88">
         <f>MOD(E45 -G44,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="92">
+      <c r="F46" s="88">
         <f t="shared" ref="F46" si="92">MOD(F45 -H44,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G46" s="92">
+      <c r="G46" s="88">
         <f t="shared" ref="G46" si="93">MOD(G45 -I44,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H46" s="92">
+      <c r="H46" s="88">
         <f t="shared" ref="H46" si="94">MOD(H45 -J44,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="92">
+      <c r="I46" s="88">
         <f>MOD(I45 -K44,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J46" s="92">
+      <c r="J46" s="88">
         <f>MOD(J45 -P44,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="146"/>
-      <c r="L46" s="147"/>
-      <c r="M46" s="149"/>
-      <c r="N46" s="150"/>
+      <c r="K46" s="121"/>
+      <c r="L46" s="122"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="118"/>
       <c r="O46" s="27" t="str">
         <f>IF(MOD(O45-P44,$B$8+$C$8)=$C$8, "OK", "NG")</f>
         <v>OK</v>
@@ -5039,7 +5027,7 @@
         <f t="shared" ref="P46" si="95">MOD(P45 -R44,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="92">
+      <c r="Q46" s="88">
         <f t="shared" ref="Q46" si="96">MOD(Q45 -S44,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -5068,7 +5056,7 @@
       <c r="Y46" s="19"/>
     </row>
     <row r="47" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="140">
+      <c r="B47" s="125">
         <v>12</v>
       </c>
       <c r="C47" s="47">
@@ -5077,27 +5065,27 @@
       <c r="D47" s="47">
         <v>1</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="84">
         <f>IF(D47=1,0,(D47-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F47" s="89">
+      <c r="F47" s="85">
         <f>(E47 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G47" s="89">
+      <c r="G47" s="85">
         <f>(F47 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H47" s="89">
+      <c r="H47" s="85">
         <f>(G47 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I47" s="89">
+      <c r="I47" s="85">
         <f>(H47 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J47" s="90">
+      <c r="J47" s="86">
         <f>(I47 + $B$8)</f>
         <v>19</v>
       </c>
@@ -5115,73 +5103,73 @@
         <f>L47 + $C$8</f>
         <v>22</v>
       </c>
-      <c r="P47" s="118">
+      <c r="P47" s="114">
         <f>O47+VLOOKUP(C47,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q47" s="89">
+      <c r="Q47" s="85">
         <f>(P47 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R47" s="89">
+      <c r="R47" s="85">
         <f>Q47 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S47" s="89">
+      <c r="S47" s="85">
         <f>(R47 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T47" s="89">
+      <c r="T47" s="85">
         <f>S47 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U47" s="89">
+      <c r="U47" s="85">
         <f>(T47 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V47" s="89">
+      <c r="V47" s="85">
         <f>U47 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W47" s="89">
+      <c r="W47" s="85">
         <f>(V47 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X47" s="90">
+      <c r="X47" s="86">
         <f>W47 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y47" s="19"/>
     </row>
     <row r="48" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B48" s="141"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="48">
         <v>2</v>
       </c>
       <c r="D48" s="48">
         <v>2</v>
       </c>
-      <c r="E48" s="88">
+      <c r="E48" s="84">
         <f>IF(D48=1,0,(D48-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F48" s="89">
+      <c r="F48" s="85">
         <f>(E48 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G48" s="89">
+      <c r="G48" s="85">
         <f>(F48 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H48" s="89">
+      <c r="H48" s="85">
         <f>(G48 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I48" s="89">
+      <c r="I48" s="85">
         <f>(H48 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J48" s="90">
+      <c r="J48" s="86">
         <f>(I48 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -5199,39 +5187,39 @@
         <f>L48 + $C$8</f>
         <v>27</v>
       </c>
-      <c r="P48" s="118">
+      <c r="P48" s="114">
         <f>O48+VLOOKUP(C48,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q48" s="89">
+      <c r="Q48" s="85">
         <f>(P48 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R48" s="89">
+      <c r="R48" s="85">
         <f>Q48 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S48" s="89">
+      <c r="S48" s="85">
         <f>(R48 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T48" s="89">
+      <c r="T48" s="85">
         <f>S48 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U48" s="89">
+      <c r="U48" s="85">
         <f>(T48 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V48" s="89">
+      <c r="V48" s="85">
         <f>U48 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W48" s="89">
+      <c r="W48" s="85">
         <f>(V48 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X48" s="90">
+      <c r="X48" s="86">
         <f>W48 + $B$8</f>
         <v>58</v>
       </c>
@@ -5246,31 +5234,31 @@
         <v>OK</v>
       </c>
       <c r="D49" s="25"/>
-      <c r="E49" s="92">
+      <c r="E49" s="88">
         <f>MOD(E48 -G47,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="92">
+      <c r="F49" s="88">
         <f t="shared" ref="F49" si="102">MOD(F48 -H47,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="92">
+      <c r="G49" s="88">
         <f t="shared" ref="G49" si="103">MOD(G48 -I47,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="92">
+      <c r="H49" s="88">
         <f t="shared" ref="H49" si="104">MOD(H48 -J47,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="92">
+      <c r="I49" s="88">
         <f>MOD(I48 -K47,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J49" s="92">
+      <c r="J49" s="88">
         <f>MOD(J48 -P47,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="92" t="str">
+      <c r="K49" s="88" t="str">
         <f>IF(MOD(K48-P47,$B$8+$C$8)=$C$8,"OK","NG")</f>
         <v>OK</v>
       </c>
@@ -5282,7 +5270,7 @@
         <f t="shared" ref="P49" si="105">MOD(P48 -R47,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="92">
+      <c r="Q49" s="88">
         <f t="shared" ref="Q49" si="106">MOD(Q48 -S47,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -5311,7 +5299,7 @@
       <c r="Y49" s="19"/>
     </row>
     <row r="50" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="140">
+      <c r="B50" s="125">
         <v>13</v>
       </c>
       <c r="C50" s="15">
@@ -5320,27 +5308,27 @@
       <c r="D50" s="15">
         <v>1</v>
       </c>
-      <c r="E50" s="88">
+      <c r="E50" s="84">
         <f>IF(D50=1,0,(D50-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F50" s="89">
+      <c r="F50" s="85">
         <f>(E50 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G50" s="89">
+      <c r="G50" s="85">
         <f>(F50 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H50" s="89">
+      <c r="H50" s="85">
         <f>(G50 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I50" s="89">
+      <c r="I50" s="85">
         <f>(H50 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J50" s="90">
+      <c r="J50" s="86">
         <f>(I50 + $B$8)</f>
         <v>19</v>
       </c>
@@ -5358,73 +5346,73 @@
         <f>L50 + $C$8</f>
         <v>22</v>
       </c>
-      <c r="P50" s="118">
+      <c r="P50" s="114">
         <f>O50+VLOOKUP(C50,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q50" s="89">
+      <c r="Q50" s="85">
         <f>(P50 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R50" s="89">
+      <c r="R50" s="85">
         <f>Q50 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S50" s="89">
+      <c r="S50" s="85">
         <f>(R50 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T50" s="89">
+      <c r="T50" s="85">
         <f>S50 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U50" s="89">
+      <c r="U50" s="85">
         <f>(T50 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V50" s="89">
+      <c r="V50" s="85">
         <f>U50 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W50" s="89">
+      <c r="W50" s="85">
         <f>(V50 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X50" s="90">
+      <c r="X50" s="86">
         <f>W50 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y50" s="19"/>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B51" s="141"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="49">
         <v>4</v>
       </c>
       <c r="D51" s="49">
         <v>2</v>
       </c>
-      <c r="E51" s="88">
+      <c r="E51" s="84">
         <f>IF(D51=1,0,(D51-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F51" s="89">
+      <c r="F51" s="85">
         <f>(E51 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G51" s="89">
+      <c r="G51" s="85">
         <f>(F51 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H51" s="89">
+      <c r="H51" s="85">
         <f>(G51 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I51" s="89">
+      <c r="I51" s="85">
         <f>(H51 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J51" s="90">
+      <c r="J51" s="86">
         <f>(I51 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -5436,47 +5424,47 @@
         <f>J51 + 0.5</f>
         <v>26</v>
       </c>
-      <c r="N51" s="91">
+      <c r="N51" s="87">
         <f>M51 +VLOOKUP(C51,$B$2:$I$5,7,0)</f>
         <v>31</v>
       </c>
-      <c r="O51" s="91">
+      <c r="O51" s="87">
         <f>N51 + $C$8</f>
         <v>31.5</v>
       </c>
-      <c r="P51" s="118">
+      <c r="P51" s="114">
         <f>O51+VLOOKUP(C51,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q51" s="89">
+      <c r="Q51" s="85">
         <f>(P51 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R51" s="89">
+      <c r="R51" s="85">
         <f>Q51 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S51" s="89">
+      <c r="S51" s="85">
         <f>(R51 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T51" s="89">
+      <c r="T51" s="85">
         <f>S51 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U51" s="89">
+      <c r="U51" s="85">
         <f>(T51 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V51" s="89">
+      <c r="V51" s="85">
         <f>U51 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W51" s="89">
+      <c r="W51" s="85">
         <f>(V51 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X51" s="90">
+      <c r="X51" s="86">
         <f>W51 + $B$8</f>
         <v>58</v>
       </c>
@@ -5491,27 +5479,27 @@
         <v>OK</v>
       </c>
       <c r="D52" s="25"/>
-      <c r="E52" s="92">
+      <c r="E52" s="88">
         <f>MOD(E51 -G50,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="92">
+      <c r="F52" s="88">
         <f t="shared" ref="F52" si="112">MOD(F51 -H50,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="92">
+      <c r="G52" s="88">
         <f t="shared" ref="G52" si="113">MOD(G51 -I50,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H52" s="92">
+      <c r="H52" s="88">
         <f t="shared" ref="H52" si="114">MOD(H51 -J50,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I52" s="92">
+      <c r="I52" s="88">
         <f>MOD(I51 -K50,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J52" s="92">
+      <c r="J52" s="88">
         <f>MOD(J51 -P50,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -5527,7 +5515,7 @@
         <f t="shared" ref="P52" si="115">MOD(P51 -R50,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="92">
+      <c r="Q52" s="88">
         <f t="shared" ref="Q52" si="116">MOD(Q51 -S50,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -5556,7 +5544,7 @@
       <c r="Y52" s="19"/>
     </row>
     <row r="53" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="140">
+      <c r="B53" s="125">
         <v>14</v>
       </c>
       <c r="C53" s="51">
@@ -5565,27 +5553,27 @@
       <c r="D53" s="51">
         <v>1</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="84">
         <f>IF(D53=1,0,(D53-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="89">
+      <c r="F53" s="85">
         <f>(E53 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G53" s="89">
+      <c r="G53" s="85">
         <f>(F53 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H53" s="89">
+      <c r="H53" s="85">
         <f>(G53 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I53" s="89">
+      <c r="I53" s="85">
         <f>(H53 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J53" s="90">
+      <c r="J53" s="86">
         <f>(I53 + $B$8)</f>
         <v>19</v>
       </c>
@@ -5597,81 +5585,81 @@
         <f>J53 + 0.5</f>
         <v>19.5</v>
       </c>
-      <c r="N53" s="91">
+      <c r="N53" s="87">
         <f>M53 +VLOOKUP(C53,$B$2:$I$5,7,0)</f>
         <v>24.5</v>
       </c>
-      <c r="O53" s="91">
+      <c r="O53" s="87">
         <f>N53 + $C$8</f>
         <v>25</v>
       </c>
-      <c r="P53" s="118">
+      <c r="P53" s="114">
         <f>O53+VLOOKUP(C53,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q53" s="89">
+      <c r="Q53" s="85">
         <f>(P53 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R53" s="89">
+      <c r="R53" s="85">
         <f>Q53 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S53" s="89">
+      <c r="S53" s="85">
         <f>(R53 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T53" s="89">
+      <c r="T53" s="85">
         <f>S53 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U53" s="89">
+      <c r="U53" s="85">
         <f>(T53 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V53" s="89">
+      <c r="V53" s="85">
         <f>U53 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W53" s="89">
+      <c r="W53" s="85">
         <f>(V53 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X53" s="90">
+      <c r="X53" s="86">
         <f>W53 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y53" s="19"/>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B54" s="141"/>
+      <c r="B54" s="126"/>
       <c r="C54" s="46">
         <v>1</v>
       </c>
       <c r="D54" s="46">
         <v>7</v>
       </c>
-      <c r="E54" s="88">
+      <c r="E54" s="84">
         <f>IF(D54=1,0,(D54-1)*($B$8+$C$8))</f>
         <v>39</v>
       </c>
-      <c r="F54" s="89">
+      <c r="F54" s="85">
         <f>(E54 + $B$8)</f>
         <v>45</v>
       </c>
-      <c r="G54" s="89">
+      <c r="G54" s="85">
         <f>(F54 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="H54" s="89">
+      <c r="H54" s="85">
         <f>(G54 + $B$8)</f>
         <v>51.5</v>
       </c>
-      <c r="I54" s="89">
+      <c r="I54" s="85">
         <f>(H54 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="J54" s="90">
+      <c r="J54" s="86">
         <f>(I54 + $B$8)</f>
         <v>58</v>
       </c>
@@ -5681,43 +5669,43 @@
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
       <c r="N54" s="34"/>
-      <c r="O54" s="119">
+      <c r="O54" s="115">
         <f>J54+$C$8</f>
         <v>58.5</v>
       </c>
-      <c r="P54" s="118">
+      <c r="P54" s="114">
         <f>O54+VLOOKUP(C54,$B$2:$I$5,8,0)</f>
         <v>64.5</v>
       </c>
-      <c r="Q54" s="89">
+      <c r="Q54" s="85">
         <f>(P54 +$C$8)</f>
         <v>65</v>
       </c>
-      <c r="R54" s="89">
+      <c r="R54" s="85">
         <f>Q54 + $B$8</f>
         <v>71</v>
       </c>
-      <c r="S54" s="89">
+      <c r="S54" s="85">
         <f>(R54 +$C$8)</f>
         <v>71.5</v>
       </c>
-      <c r="T54" s="89">
+      <c r="T54" s="85">
         <f>S54 + $B$8</f>
         <v>77.5</v>
       </c>
-      <c r="U54" s="89">
+      <c r="U54" s="85">
         <f>(T54 +$C$8)</f>
         <v>78</v>
       </c>
-      <c r="V54" s="89">
+      <c r="V54" s="85">
         <f>U54 + $B$8</f>
         <v>84</v>
       </c>
-      <c r="W54" s="89">
+      <c r="W54" s="85">
         <f>(V54 +$C$8)</f>
         <v>84.5</v>
       </c>
-      <c r="X54" s="90">
+      <c r="X54" s="86">
         <f>W54 + $B$8</f>
         <v>90.5</v>
       </c>
@@ -5732,34 +5720,34 @@
         <v>OK</v>
       </c>
       <c r="D55" s="25"/>
-      <c r="E55" s="92">
+      <c r="E55" s="88">
         <f>MOD(E54 -G53,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F55" s="92">
+      <c r="F55" s="88">
         <f t="shared" ref="F55" si="122">MOD(F54 -H53,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G55" s="92">
+      <c r="G55" s="88">
         <f t="shared" ref="G55" si="123">MOD(G54 -I53,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H55" s="92">
+      <c r="H55" s="88">
         <f t="shared" ref="H55" si="124">MOD(H54 -J53,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I55" s="92">
+      <c r="I55" s="88">
         <f>MOD(I54 -M53,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J55" s="92">
+      <c r="J55" s="88">
         <f>MOD(J54 -P53,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="K55" s="146"/>
-      <c r="L55" s="147"/>
-      <c r="M55" s="149"/>
-      <c r="N55" s="150"/>
+      <c r="K55" s="121"/>
+      <c r="L55" s="122"/>
+      <c r="M55" s="117"/>
+      <c r="N55" s="118"/>
       <c r="O55" s="27" t="str">
         <f>IF(MOD(O54-P53,$B$8+$C$8)=$C$8, "OK", "NG")</f>
         <v>OK</v>
@@ -5768,7 +5756,7 @@
         <f t="shared" ref="P55" si="125">MOD(P54 -R53,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="92">
+      <c r="Q55" s="88">
         <f t="shared" ref="Q55" si="126">MOD(Q54 -S53,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -5797,7 +5785,7 @@
       <c r="Y55" s="19"/>
     </row>
     <row r="56" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="140">
+      <c r="B56" s="125">
         <v>15</v>
       </c>
       <c r="C56" s="47">
@@ -5806,27 +5794,27 @@
       <c r="D56" s="47">
         <v>1</v>
       </c>
-      <c r="E56" s="88">
+      <c r="E56" s="84">
         <f>IF(D56=1,0,(D56-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F56" s="89">
+      <c r="F56" s="85">
         <f>(E56 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G56" s="89">
+      <c r="G56" s="85">
         <f>(F56 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H56" s="89">
+      <c r="H56" s="85">
         <f>(G56 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I56" s="89">
+      <c r="I56" s="85">
         <f>(H56 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J56" s="90">
+      <c r="J56" s="86">
         <f>(I56 + $B$8)</f>
         <v>19</v>
       </c>
@@ -5838,81 +5826,81 @@
         <f>J56 + 0.5</f>
         <v>19.5</v>
       </c>
-      <c r="N56" s="91">
+      <c r="N56" s="87">
         <f>M56 +VLOOKUP(C56,$B$2:$I$5,7,0)</f>
         <v>24.5</v>
       </c>
-      <c r="O56" s="91">
+      <c r="O56" s="87">
         <f>N56 + $C$8</f>
         <v>25</v>
       </c>
-      <c r="P56" s="118">
+      <c r="P56" s="114">
         <f>O56+VLOOKUP(C56,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q56" s="89">
+      <c r="Q56" s="85">
         <f>(P56 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R56" s="89">
+      <c r="R56" s="85">
         <f>Q56 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S56" s="89">
+      <c r="S56" s="85">
         <f>(R56 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T56" s="89">
+      <c r="T56" s="85">
         <f>S56 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U56" s="89">
+      <c r="U56" s="85">
         <f>(T56 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V56" s="89">
+      <c r="V56" s="85">
         <f>U56 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W56" s="89">
+      <c r="W56" s="85">
         <f>(V56 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X56" s="90">
+      <c r="X56" s="86">
         <f>W56 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y56" s="19"/>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B57" s="141"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="48">
         <v>2</v>
       </c>
       <c r="D57" s="48">
         <v>2</v>
       </c>
-      <c r="E57" s="88">
+      <c r="E57" s="84">
         <f>IF(D57=1,0,(D57-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F57" s="89">
+      <c r="F57" s="85">
         <f>(E57 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G57" s="89">
+      <c r="G57" s="85">
         <f>(F57 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H57" s="89">
+      <c r="H57" s="85">
         <f>(G57 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I57" s="89">
+      <c r="I57" s="85">
         <f>(H57 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J57" s="90">
+      <c r="J57" s="86">
         <f>(I57 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -5930,39 +5918,39 @@
         <f>L57 + $C$8</f>
         <v>27</v>
       </c>
-      <c r="P57" s="118">
+      <c r="P57" s="114">
         <f>O57+VLOOKUP(C57,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q57" s="89">
+      <c r="Q57" s="85">
         <f>(P57 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R57" s="89">
+      <c r="R57" s="85">
         <f>Q57 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S57" s="89">
+      <c r="S57" s="85">
         <f>(R57 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T57" s="89">
+      <c r="T57" s="85">
         <f>S57 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U57" s="89">
+      <c r="U57" s="85">
         <f>(T57 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V57" s="89">
+      <c r="V57" s="85">
         <f>U57 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W57" s="89">
+      <c r="W57" s="85">
         <f>(V57 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X57" s="90">
+      <c r="X57" s="86">
         <f>W57 + $B$8</f>
         <v>58</v>
       </c>
@@ -5977,31 +5965,31 @@
         <v>OK</v>
       </c>
       <c r="D58" s="25"/>
-      <c r="E58" s="92">
+      <c r="E58" s="88">
         <f>MOD(E57 -G56,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F58" s="92">
+      <c r="F58" s="88">
         <f t="shared" ref="F58" si="132">MOD(F57 -H56,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G58" s="92">
+      <c r="G58" s="88">
         <f t="shared" ref="G58" si="133">MOD(G57 -I56,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="92">
+      <c r="H58" s="88">
         <f t="shared" ref="H58" si="134">MOD(H57 -J56,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I58" s="92">
+      <c r="I58" s="88">
         <f>MOD(I57 -M56,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J58" s="92">
+      <c r="J58" s="88">
         <f>MOD(J57 -P56,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="K58" s="92" t="str">
+      <c r="K58" s="88" t="str">
         <f>IF(MOD(K57-P56,$B$8+$C$8)=$C$8,"OK","NG")</f>
         <v>OK</v>
       </c>
@@ -6013,7 +6001,7 @@
         <f t="shared" ref="P58" si="135">MOD(P57 -R56,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q58" s="92">
+      <c r="Q58" s="88">
         <f t="shared" ref="Q58" si="136">MOD(Q57 -S56,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -6042,7 +6030,7 @@
       <c r="Y58" s="19"/>
     </row>
     <row r="59" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="148">
+      <c r="B59" s="127">
         <v>16</v>
       </c>
       <c r="C59" s="15">
@@ -6051,27 +6039,27 @@
       <c r="D59" s="15">
         <v>1</v>
       </c>
-      <c r="E59" s="88">
+      <c r="E59" s="84">
         <f>IF(D59=1,0,(D59-1)*($B$8+$C$8))</f>
         <v>0</v>
       </c>
-      <c r="F59" s="89">
+      <c r="F59" s="85">
         <f>(E59 + $B$8)</f>
         <v>6</v>
       </c>
-      <c r="G59" s="89">
+      <c r="G59" s="85">
         <f>(F59 +$C$8)</f>
         <v>6.5</v>
       </c>
-      <c r="H59" s="89">
+      <c r="H59" s="85">
         <f>(G59 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="I59" s="89">
+      <c r="I59" s="85">
         <f>(H59 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="J59" s="90">
+      <c r="J59" s="86">
         <f>(I59 + $B$8)</f>
         <v>19</v>
       </c>
@@ -6083,81 +6071,81 @@
         <f>J59 + 0.5</f>
         <v>19.5</v>
       </c>
-      <c r="N59" s="91">
+      <c r="N59" s="87">
         <f>M59 +VLOOKUP(C59,$B$2:$I$5,7,0)</f>
         <v>24.5</v>
       </c>
-      <c r="O59" s="91">
+      <c r="O59" s="87">
         <f>N59 + $C$8</f>
         <v>25</v>
       </c>
-      <c r="P59" s="118">
+      <c r="P59" s="114">
         <f>O59+VLOOKUP(C59,$B$2:$I$5,8,0)</f>
         <v>25.5</v>
       </c>
-      <c r="Q59" s="89">
+      <c r="Q59" s="85">
         <f>(P59 +$C$8)</f>
         <v>26</v>
       </c>
-      <c r="R59" s="89">
+      <c r="R59" s="85">
         <f>Q59 + $B$8</f>
         <v>32</v>
       </c>
-      <c r="S59" s="89">
+      <c r="S59" s="85">
         <f>(R59 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="T59" s="89">
+      <c r="T59" s="85">
         <f>S59 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="U59" s="89">
+      <c r="U59" s="85">
         <f>(T59 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="V59" s="89">
+      <c r="V59" s="85">
         <f>U59 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="W59" s="89">
+      <c r="W59" s="85">
         <f>(V59 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="X59" s="90">
+      <c r="X59" s="86">
         <f>W59 + $B$8</f>
         <v>51.5</v>
       </c>
       <c r="Y59" s="19"/>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B60" s="148"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="49">
         <v>3</v>
       </c>
       <c r="D60" s="49">
         <v>2</v>
       </c>
-      <c r="E60" s="88">
+      <c r="E60" s="84">
         <f>IF(D60=1,0,(D60-1)*($B$8+$C$8))</f>
         <v>6.5</v>
       </c>
-      <c r="F60" s="89">
+      <c r="F60" s="85">
         <f>(E60 + $B$8)</f>
         <v>12.5</v>
       </c>
-      <c r="G60" s="89">
+      <c r="G60" s="85">
         <f>(F60 +$C$8)</f>
         <v>13</v>
       </c>
-      <c r="H60" s="89">
+      <c r="H60" s="85">
         <f>(G60 + $B$8)</f>
         <v>19</v>
       </c>
-      <c r="I60" s="89">
+      <c r="I60" s="85">
         <f>(H60 +$C$8)</f>
         <v>19.5</v>
       </c>
-      <c r="J60" s="90">
+      <c r="J60" s="86">
         <f>(I60 + $B$8)</f>
         <v>25.5</v>
       </c>
@@ -6175,39 +6163,39 @@
         <f>L60 + $C$8</f>
         <v>28.5</v>
       </c>
-      <c r="P60" s="118">
+      <c r="P60" s="114">
         <f>O60+VLOOKUP(C60,$B$2:$I$5,8,0)</f>
         <v>32</v>
       </c>
-      <c r="Q60" s="89">
+      <c r="Q60" s="85">
         <f>(P60 +$C$8)</f>
         <v>32.5</v>
       </c>
-      <c r="R60" s="89">
+      <c r="R60" s="85">
         <f>Q60 + $B$8</f>
         <v>38.5</v>
       </c>
-      <c r="S60" s="89">
+      <c r="S60" s="85">
         <f>(R60 +$C$8)</f>
         <v>39</v>
       </c>
-      <c r="T60" s="89">
+      <c r="T60" s="85">
         <f>S60 + $B$8</f>
         <v>45</v>
       </c>
-      <c r="U60" s="89">
+      <c r="U60" s="85">
         <f>(T60 +$C$8)</f>
         <v>45.5</v>
       </c>
-      <c r="V60" s="89">
+      <c r="V60" s="85">
         <f>U60 + $B$8</f>
         <v>51.5</v>
       </c>
-      <c r="W60" s="89">
+      <c r="W60" s="85">
         <f>(V60 +$C$8)</f>
         <v>52</v>
       </c>
-      <c r="X60" s="90">
+      <c r="X60" s="86">
         <f>W60 + $B$8</f>
         <v>58</v>
       </c>
@@ -6222,31 +6210,31 @@
         <v>OK</v>
       </c>
       <c r="D61" s="25"/>
-      <c r="E61" s="92">
+      <c r="E61" s="88">
         <f>MOD(E60 -G59,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="92">
+      <c r="F61" s="88">
         <f t="shared" ref="F61" si="142">MOD(F60 -H59,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="G61" s="92">
+      <c r="G61" s="88">
         <f t="shared" ref="G61" si="143">MOD(G60 -I59,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="92">
+      <c r="H61" s="88">
         <f t="shared" ref="H61" si="144">MOD(H60 -J59,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="I61" s="92">
+      <c r="I61" s="88">
         <f>MOD(I60 -M59,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="J61" s="92">
+      <c r="J61" s="88">
         <f>MOD(J60 -P59,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="K61" s="92" t="str">
+      <c r="K61" s="88" t="str">
         <f>IF(MOD(K60-P59,$B$8+$C$8)=$C$8,"OK","NG")</f>
         <v>OK</v>
       </c>
@@ -6258,7 +6246,7 @@
         <f t="shared" ref="P61" si="145">MOD(P60 -R59,$B$8+$C$8)</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="92">
+      <c r="Q61" s="88">
         <f t="shared" ref="Q61" si="146">MOD(Q60 -S59,$B$8+$C$8)</f>
         <v>0</v>
       </c>
@@ -6291,25 +6279,27 @@
     <protectedRange algorithmName="SHA-512" hashValue="ZwMkhgLfey0lJvgW67+7mDT2qRvWpNbMIFul81Po1qEPAZyr7VKy1/FY6UojjmdCddeG8llILgmoCOy5YhpvNQ==" saltValue="1FljBa9TVz4gGg9ycLc7vg==" spinCount="100000" sqref="E14:X61" name="Range1"/>
   </protectedRanges>
   <mergeCells count="51">
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M37:N37"/>
     <mergeCell ref="N2:N4"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="P8:Y8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:X13"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
@@ -6322,26 +6312,24 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:X13"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="P8:Y8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:O8"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:C13">
     <cfRule type="expression" dxfId="3" priority="4">
@@ -6371,8 +6359,8 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6396,7 +6384,7 @@
       <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="154">
+      <c r="A2" s="150">
         <v>1</v>
       </c>
       <c r="B2" s="62" t="s">
@@ -6432,12 +6420,12 @@
       <c r="L2" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="156" t="s">
+      <c r="M2" s="152" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="155"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="55" t="s">
         <v>33</v>
       </c>
@@ -6445,36 +6433,43 @@
         <v>6</v>
       </c>
       <c r="D3" s="71">
-        <v>6</v>
-      </c>
-      <c r="E3" s="72">
-        <v>6</v>
-      </c>
-      <c r="F3" s="73" t="s">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="E3" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="73">
-        <v>6</v>
-      </c>
-      <c r="I3" s="74">
-        <v>6</v>
-      </c>
-      <c r="J3" s="75">
-        <v>6</v>
-      </c>
-      <c r="K3" s="75">
-        <v>6</v>
-      </c>
-      <c r="L3" s="76">
-        <v>6</v>
-      </c>
-      <c r="M3" s="151"/>
+      <c r="H3" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="J3" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="K3" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="M3" s="119"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="154">
+      <c r="A4" s="150">
         <v>2</v>
       </c>
       <c r="B4" s="62" t="s">
@@ -6489,13 +6484,13 @@
       <c r="E4" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="75" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="67" t="s">
@@ -6510,47 +6505,54 @@
       <c r="L4" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="151"/>
+      <c r="M4" s="119"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="155"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="70">
-        <v>6</v>
-      </c>
-      <c r="D5" s="71">
-        <v>6</v>
-      </c>
-      <c r="E5" s="72">
-        <v>6</v>
-      </c>
-      <c r="F5" s="80">
+      <c r="C5" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="E5" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="F5" s="76">
         <v>0.5</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="81">
+      <c r="H5" s="77">
         <v>5</v>
       </c>
-      <c r="I5" s="74">
-        <v>6</v>
-      </c>
-      <c r="J5" s="75">
-        <v>6</v>
-      </c>
-      <c r="K5" s="75">
-        <v>6</v>
-      </c>
-      <c r="L5" s="76">
-        <v>6</v>
-      </c>
-      <c r="M5" s="151"/>
+      <c r="I5" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="J5" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="K5" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="119"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="154">
+      <c r="A6" s="150">
         <v>3</v>
       </c>
       <c r="B6" s="62">
@@ -6565,13 +6567,13 @@
       <c r="E6" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="79" t="s">
+      <c r="H6" s="75" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="67" t="s">
@@ -6586,45 +6588,52 @@
       <c r="L6" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="151"/>
+      <c r="M6" s="119"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="155"/>
+      <c r="A7" s="151"/>
       <c r="B7" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="70">
-        <v>6</v>
-      </c>
-      <c r="D7" s="71">
-        <v>6</v>
-      </c>
-      <c r="E7" s="72">
-        <v>6</v>
-      </c>
-      <c r="F7" s="80">
+      <c r="C7" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="F7" s="76">
         <v>2</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="81">
+      <c r="G7" s="72"/>
+      <c r="H7" s="77">
         <v>3.5</v>
       </c>
-      <c r="I7" s="74">
-        <v>6</v>
-      </c>
-      <c r="J7" s="75">
-        <v>6</v>
-      </c>
-      <c r="K7" s="75">
-        <v>6</v>
-      </c>
-      <c r="L7" s="76">
-        <v>6</v>
-      </c>
-      <c r="M7" s="152"/>
+      <c r="I7" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="J7" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="K7" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="L7" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="M7" s="120"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="157">
+      <c r="A8" s="153">
         <v>4</v>
       </c>
       <c r="B8" s="62" t="s">
@@ -6639,13 +6648,13 @@
       <c r="E8" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="75" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="67" t="s">
@@ -6660,46 +6669,53 @@
       <c r="L8" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="156" t="s">
+      <c r="M8" s="152" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="155"/>
+      <c r="A9" s="151"/>
       <c r="B9" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="70">
-        <v>6</v>
-      </c>
-      <c r="D9" s="71">
-        <v>6</v>
-      </c>
-      <c r="E9" s="72">
-        <v>6</v>
-      </c>
-      <c r="F9" s="83" t="s">
+      <c r="C9" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="D9" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="E9" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="80">
         <v>5</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="81">
         <v>0.5</v>
       </c>
-      <c r="I9" s="74">
-        <v>6</v>
-      </c>
-      <c r="J9" s="75">
-        <v>6</v>
-      </c>
-      <c r="K9" s="75">
-        <v>6</v>
-      </c>
-      <c r="L9" s="76">
-        <v>6</v>
-      </c>
-      <c r="M9" s="152"/>
+      <c r="I9" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="J9" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="K9" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="L9" s="98">
+        <f>$C$3</f>
+        <v>6</v>
+      </c>
+      <c r="M9" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="6">
